--- a/exe/TSV/Excel/StationSettingList.xlsx
+++ b/exe/TSV/Excel/StationSettingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaCommandConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78622B02-48BD-4E85-B9E6-6908F68F37BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB1B292-0B0A-47B3-A44C-9D739F14B1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="2895" windowWidth="23970" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="7890" yWindow="3990" windowWidth="23955" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>StationName</t>
     <phoneticPr fontId="1"/>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>TH66S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,3,4,5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -674,7 +678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -709,7 +715,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">

--- a/exe/TSV/Excel/StationSettingList.xlsx
+++ b/exe/TSV/Excel/StationSettingList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaCommandConsole\exe\TSV\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaCommanderTable\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB1B292-0B0A-47B3-A44C-9D739F14B1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E564D0-0E44-45F3-B9FF-3F4E21D8607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="3990" windowWidth="23955" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="9360" yWindow="4545" windowWidth="23955" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>StationName</t>
     <phoneticPr fontId="1"/>
@@ -264,10 +264,6 @@
   </si>
   <si>
     <t>TH66S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1,3,4,5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -715,7 +711,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
